--- a/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC80.xlsx
+++ b/fuentes/contenidos/grado04/guion01/SolicitudGrafica_MA_04_01_CO_REC80.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johana Montejo Rozo\Dropbox\AULA PLANETA\Temas\Tema 1\Edición\Solicitudes Graficas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Copia\JOHANNA\Documents\Documents\Matematicas\fuentes\contenidos\grado04\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="159">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -528,9 +528,6 @@
     <t>IMG01</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC80, pág. 2)</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
@@ -546,16 +543,13 @@
     <t>Conjunto V, con su subconjunto D. A su vez el conjunto D tiene como subconjuntos I y P.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC80, pág. 3)</t>
-  </si>
-  <si>
     <t>Conjuntos T, M y A.</t>
   </si>
   <si>
     <t>Conjunto L con subconjuntos M, S y B.</t>
   </si>
   <si>
-    <t>(Ver recurso MA_04_01_CO_REC80, pág. 4)</t>
+    <t>(Ver imagen en observaciones, última columna de esta tabla)</t>
   </si>
 </sst>
 </file>
@@ -1332,9 +1326,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,6 +1542,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1684,6 +1678,240 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774065</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1177608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16422688" y="2071688"/>
+          <a:ext cx="4679315" cy="1058545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3860800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1678622</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16708438" y="3254376"/>
+          <a:ext cx="3511550" cy="1607184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2825749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1333501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17184688" y="4945064"/>
+          <a:ext cx="2000249" cy="1301750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3915410</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16359188" y="6286500"/>
+          <a:ext cx="3915410" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2460625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16589375" y="7223124"/>
+          <a:ext cx="2230438" cy="1809751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2400,7 +2628,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2415,7 +2643,7 @@
     <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="52.125" style="17" customWidth="1"/>
     <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
     <col min="14" max="16384" width="10.875" style="2"/>
@@ -2428,8 +2656,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -2438,16 +2666,16 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="76" t="s">
+      <c r="D2" s="83"/>
+      <c r="F2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2455,14 +2683,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="84">
         <v>4</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="85"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -2470,19 +2698,19 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -2491,20 +2719,20 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="50" t="str">
+      <c r="F5" s="49" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v>Motor del recurso</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2516,20 +2744,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1"/>
@@ -2545,12 +2773,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2560,7 +2788,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2575,16 +2803,16 @@
       <c r="E9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="72" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="25" t="s">
@@ -2594,19 +2822,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>151</v>
+      <c r="B10" s="106" t="s">
+        <v>158</v>
       </c>
       <c r="C10" s="27" t="str">
         <f t="shared" ref="C10:C14" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Recurso M5A</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>146</v>
@@ -2628,23 +2856,23 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J10" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>151</v>
+      <c r="B11" s="106" t="s">
+        <v>158</v>
       </c>
       <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>146</v>
@@ -2666,24 +2894,24 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
-        <f t="shared" ref="A11:A22" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
+        <f t="shared" ref="A12:A22" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>157</v>
+      <c r="B12" s="106" t="s">
+        <v>158</v>
       </c>
       <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>146</v>
@@ -2704,25 +2932,25 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>500 x 500 px</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>156</v>
+      <c r="J12" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>157</v>
+      <c r="B13" s="106" t="s">
+        <v>158</v>
       </c>
       <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>146</v>
@@ -2744,24 +2972,24 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>160</v>
+      <c r="B14" s="106" t="s">
+        <v>158</v>
       </c>
       <c r="C14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Recurso M5A</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>146</v>
@@ -2783,7 +3011,7 @@
         <v>500 x 500 px</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K14" s="20"/>
     </row>
@@ -5010,6 +5238,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5029,539 +5258,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11" style="35"/>
-    <col min="3" max="3" width="13.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="35" customWidth="1"/>
-    <col min="5" max="7" width="11" style="35"/>
-    <col min="8" max="11" width="11" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="72.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11" style="34"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="34" customWidth="1"/>
+    <col min="5" max="7" width="11" style="34"/>
+    <col min="8" max="11" width="11" style="34" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="45"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="44"/>
+      <c r="H3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="44"/>
+      <c r="H4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="102" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="35" t="s">
+      <c r="E5" s="103"/>
+      <c r="F5" s="44"/>
+      <c r="H5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="H6" s="35" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="H6" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="34">
         <v>3</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="89" t="str">
+      <c r="D7" s="88" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="H7" s="35" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="89"/>
+      <c r="H7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="34">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
+      <c r="I8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="34">
         <v>5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="I9" s="35" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="44"/>
+      <c r="I9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>6</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="I10" s="35" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="34">
         <v>7</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="34">
         <v>8</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="34">
         <v>9</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="I13" s="35" t="s">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="I13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="34">
         <v>10</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="I14" s="35" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="I14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="34">
         <v>11</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="J15" s="35">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="J15" s="34">
         <v>12</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>13</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="97" t="str">
+      <c r="D17" s="96" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="J17" s="35">
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="J17" s="34">
         <v>14</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="88" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="J18" s="35">
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="J18" s="34">
         <v>15</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="H19" s="35">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="H19" s="34">
         <v>3</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>16</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="H20" s="35">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="H20" s="34">
         <v>4</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="34">
         <v>5</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>4</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="35" t="str">
+      <c r="H21" s="34" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="35" t="str">
+      <c r="I21" s="34" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="35" t="str">
+      <c r="J21" s="34" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="35">
+      <c r="K24" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="35">
+      <c r="K25" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="35">
+      <c r="K26" s="34">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="35">
+      <c r="K27" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="35">
+      <c r="K28" s="34">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="35">
+      <c r="K29" s="34">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="35">
+      <c r="K30" s="34">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="35">
+      <c r="K31" s="34">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="35">
+      <c r="K32" s="34">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="35">
+      <c r="K33" s="34">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="35">
+      <c r="K34" s="34">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="35">
+      <c r="K35" s="34">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="35">
+      <c r="K36" s="34">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="35">
+      <c r="K37" s="34">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="35">
+      <c r="K38" s="34">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="35">
+      <c r="K39" s="34">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="35">
+      <c r="K40" s="34">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="35">
+      <c r="K41" s="34">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="35">
+      <c r="K42" s="34">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="35">
+      <c r="K43" s="34">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="35">
+      <c r="K44" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="35" t="str">
+      <c r="K45" s="34" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -5756,559 +5985,559 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="35" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="35"/>
-    <col min="5" max="5" width="11.75" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11" style="35" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="35" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="35" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="35"/>
+    <col min="1" max="1" width="21" style="34" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="34" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="34"/>
+    <col min="5" max="5" width="11.75" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="34" customWidth="1"/>
+    <col min="7" max="7" width="11" style="34" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="34" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="53" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="57" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="56"/>
+      <c r="H9" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57" t="s">
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57" t="s">
+      <c r="G11" s="56"/>
+      <c r="H11" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="60"/>
+      <c r="F13" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57" t="s">
+      <c r="G13" s="59"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="35" t="s">
+      <c r="J13" s="59"/>
+      <c r="K13" s="34" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57" t="s">
+      <c r="G14" s="59"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="35" t="s">
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="34" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62" t="s">
+      <c r="G16" s="60"/>
+      <c r="H16" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="60"/>
+      <c r="K16" s="62" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="65" t="s">
+      <c r="J17" s="56"/>
+      <c r="K17" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="65" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="71" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="8">
